--- a/blade-service/blade-anbiao/src/main/resources/templates/A.xlsx
+++ b/blade-service/blade-anbiao/src/main/resources/templates/A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24225" windowHeight="12690"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,16 +14,20 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
     <r>
+      <rPr>
+        <sz val="22"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+      </rPr>
       <t>{title}</t>
     </r>
     <r>
       <rPr>
         <sz val="22"/>
         <rFont val="Arial"/>
-        <family val="2"/>
         <charset val="0"/>
       </rPr>
       <t>-</t>
@@ -98,6 +102,15 @@
     <t>登记证书</t>
   </si>
   <si>
+    <t>驾驶员保险</t>
+  </si>
+  <si>
+    <t>车辆保险（车头）</t>
+  </si>
+  <si>
+    <t>车辆保险（挂车）</t>
+  </si>
+  <si>
     <t>{.xuhao}</t>
   </si>
   <si>
@@ -158,7 +171,13 @@
     <t>{.b8}</t>
   </si>
   <si>
-    <t>{.c}</t>
+    <t>{.c1}</t>
+  </si>
+  <si>
+    <t>{.c2}</t>
+  </si>
+  <si>
+    <t>{.c3}</t>
   </si>
 </sst>
 </file>
@@ -171,7 +190,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="26">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -180,7 +199,6 @@
     <font>
       <sz val="10"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
@@ -191,13 +209,17 @@
     <font>
       <sz val="22"/>
       <name val="Arial"/>
-      <family val="2"/>
       <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="宋体"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -659,10 +681,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -671,34 +693,31 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -710,94 +729,97 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -827,7 +849,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -836,6 +857,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1161,13 +1185,13 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:IV7"/>
+  <dimension ref="A1:IV4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
-      <selection activeCell="S32" sqref="S32"/>
+    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
+      <selection activeCell="W8" sqref="W8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.2" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="8" width="10" style="1"/>
@@ -1179,7 +1203,11 @@
     <col min="15" max="15" width="10.75" style="1" customWidth="1"/>
     <col min="16" max="18" width="10" style="1"/>
     <col min="19" max="19" width="11.125" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="10" style="1"/>
+    <col min="20" max="20" width="10" style="1"/>
+    <col min="21" max="21" width="12.3" style="1" customWidth="1"/>
+    <col min="22" max="22" width="15.3" style="1" customWidth="1"/>
+    <col min="23" max="23" width="16.1" style="1" customWidth="1"/>
+    <col min="24" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:21">
@@ -1207,7 +1235,7 @@
       <c r="T1" s="3"/>
       <c r="U1" s="3"/>
     </row>
-    <row r="2" s="1" customFormat="1" ht="26" customHeight="1" spans="1:21">
+    <row r="2" s="1" customFormat="1" ht="26" customHeight="1" spans="1:23">
       <c r="A2" s="4" t="s">
         <v>1</v>
       </c>
@@ -1222,23 +1250,25 @@
       <c r="J2" s="5"/>
       <c r="K2" s="5"/>
       <c r="L2" s="5"/>
-      <c r="M2" s="10" t="s">
+      <c r="M2" s="9" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
-      <c r="P2" s="10"/>
-      <c r="Q2" s="10" t="s">
+      <c r="N2" s="9"/>
+      <c r="O2" s="9"/>
+      <c r="P2" s="9"/>
+      <c r="Q2" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="10"/>
-      <c r="S2" s="10"/>
-      <c r="T2" s="10"/>
-      <c r="U2" s="10" t="s">
+      <c r="R2" s="9"/>
+      <c r="S2" s="9"/>
+      <c r="T2" s="9"/>
+      <c r="U2" s="5" t="s">
         <v>4</v>
       </c>
+      <c r="V2" s="5"/>
+      <c r="W2" s="5"/>
     </row>
-    <row r="3" s="1" customFormat="1" ht="24" customHeight="1" spans="1:21">
+    <row r="3" s="1" customFormat="1" ht="24" customHeight="1" spans="1:23">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -1263,110 +1293,122 @@
       <c r="H3" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="J3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="K3" s="10" t="s">
         <v>15</v>
       </c>
       <c r="L3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="10" t="s">
+      <c r="M3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="10" t="s">
+      <c r="N3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="12" t="s">
+      <c r="O3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="10" t="s">
+      <c r="P3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="10" t="s">
+      <c r="Q3" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="10" t="s">
+      <c r="R3" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="12" t="s">
+      <c r="S3" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="10" t="s">
+      <c r="T3" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="10"/>
+      <c r="U3" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="V3" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:256">
+    <row r="4" s="1" customFormat="1" ht="15.6" spans="1:256">
       <c r="A4" s="8" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E4" s="8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F4" s="8" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="G4" s="8" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="H4" s="8" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="I4" s="8" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="J4" s="8" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="K4" s="8" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="L4" s="8" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="M4" s="8" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="N4" s="8" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="O4" s="8" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="P4" s="8" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="Q4" s="8" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="R4" s="8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="S4" s="8" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="T4" s="8" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="U4" s="8" t="s">
-        <v>41</v>
-      </c>
-      <c r="V4" s="8"/>
-      <c r="W4" s="8"/>
+        <v>44</v>
+      </c>
+      <c r="V4" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="W4" s="8" t="s">
+        <v>46</v>
+      </c>
       <c r="X4" s="8"/>
       <c r="Y4" s="8"/>
       <c r="Z4" s="8"/>
@@ -1601,62 +1643,13 @@
       <c r="IU4" s="8"/>
       <c r="IV4" s="8"/>
     </row>
-    <row r="5" s="1" customFormat="1" spans="1:21">
-      <c r="A5" s="9"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
-      <c r="I5" s="9"/>
-      <c r="J5" s="9"/>
-      <c r="K5" s="9"/>
-      <c r="L5" s="9"/>
-      <c r="M5" s="9"/>
-      <c r="N5" s="9"/>
-      <c r="O5" s="9"/>
-      <c r="P5" s="9"/>
-      <c r="Q5" s="9"/>
-      <c r="R5" s="9"/>
-      <c r="S5" s="9"/>
-      <c r="T5" s="9"/>
-      <c r="U5" s="9"/>
-    </row>
-    <row r="6" s="1" customFormat="1" spans="1:21">
-      <c r="A6" s="9"/>
-      <c r="B6" s="9"/>
-      <c r="C6" s="9"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="9"/>
-      <c r="H6" s="9"/>
-      <c r="I6" s="9"/>
-      <c r="J6" s="9"/>
-      <c r="K6" s="9"/>
-      <c r="L6" s="9"/>
-      <c r="M6" s="9"/>
-      <c r="N6" s="9"/>
-      <c r="O6" s="9"/>
-      <c r="P6" s="9"/>
-      <c r="Q6" s="9"/>
-      <c r="R6" s="9"/>
-      <c r="S6" s="9"/>
-      <c r="T6" s="9"/>
-      <c r="U6" s="9"/>
-    </row>
-    <row r="7" s="1" customFormat="1" spans="2:2">
-      <c r="B7" s="9"/>
-    </row>
   </sheetData>
   <mergeCells count="5">
     <mergeCell ref="A1:U1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:T2"/>
-    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="U2:W2"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555556" footer="0.511805555555556"/>
   <pageSetup paperSize="9" orientation="portrait"/>

--- a/blade-service/blade-anbiao/src/main/resources/templates/A.xlsx
+++ b/blade-service/blade-anbiao/src/main/resources/templates/A.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="22368" windowHeight="9420"/>
+    <workbookView windowWidth="23865" windowHeight="12690"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,30 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="47">
   <si>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>{title}</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <rFont val="Arial"/>
-        <charset val="0"/>
-      </rPr>
-      <t>-</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="22"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-      </rPr>
-      <t>驾驶员信息统计表</t>
-    </r>
+    <t>{title}</t>
   </si>
   <si>
     <t>驾驶员</t>
@@ -190,7 +167,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="26">
+  <fonts count="25">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -205,11 +182,6 @@
       <sz val="22"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="22"/>
-      <name val="Arial"/>
-      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
@@ -681,10 +653,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -693,31 +665,34 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -729,112 +704,106 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="11" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="12" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -843,7 +812,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -858,7 +827,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1187,11 +1156,11 @@
   <sheetPr/>
   <dimension ref="A1:IV4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1:W1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10" defaultRowHeight="13.2" outlineLevelRow="3"/>
+  <sheetFormatPr defaultColWidth="10" defaultRowHeight="12.75" outlineLevelRow="3"/>
   <cols>
     <col min="1" max="1" width="8.875" style="1" customWidth="1"/>
     <col min="2" max="8" width="10" style="1"/>
@@ -1210,442 +1179,444 @@
     <col min="24" max="16384" width="10" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:21">
+    <row r="1" s="1" customFormat="1" ht="28" customHeight="1" spans="1:23">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="3"/>
-      <c r="C1" s="3"/>
-      <c r="D1" s="3"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="3"/>
-      <c r="J1" s="3"/>
-      <c r="K1" s="3"/>
-      <c r="L1" s="3"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="3"/>
-      <c r="O1" s="3"/>
-      <c r="P1" s="3"/>
-      <c r="Q1" s="3"/>
-      <c r="R1" s="3"/>
-      <c r="S1" s="3"/>
-      <c r="T1" s="3"/>
-      <c r="U1" s="3"/>
+      <c r="B1" s="2"/>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+      <c r="J1" s="2"/>
+      <c r="K1" s="2"/>
+      <c r="L1" s="2"/>
+      <c r="M1" s="2"/>
+      <c r="N1" s="2"/>
+      <c r="O1" s="2"/>
+      <c r="P1" s="2"/>
+      <c r="Q1" s="2"/>
+      <c r="R1" s="2"/>
+      <c r="S1" s="2"/>
+      <c r="T1" s="2"/>
+      <c r="U1" s="2"/>
+      <c r="V1" s="2"/>
+      <c r="W1" s="2"/>
     </row>
     <row r="2" s="1" customFormat="1" ht="26" customHeight="1" spans="1:23">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="5"/>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="5"/>
-      <c r="L2" s="5"/>
-      <c r="M2" s="9" t="s">
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2" s="4"/>
+      <c r="L2" s="4"/>
+      <c r="M2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="9"/>
-      <c r="O2" s="9"/>
-      <c r="P2" s="9"/>
-      <c r="Q2" s="9" t="s">
+      <c r="N2" s="8"/>
+      <c r="O2" s="8"/>
+      <c r="P2" s="8"/>
+      <c r="Q2" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="R2" s="9"/>
-      <c r="S2" s="9"/>
-      <c r="T2" s="9"/>
-      <c r="U2" s="5" t="s">
+      <c r="R2" s="8"/>
+      <c r="S2" s="8"/>
+      <c r="T2" s="8"/>
+      <c r="U2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="5"/>
-      <c r="W2" s="5"/>
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
     </row>
     <row r="3" s="1" customFormat="1" ht="24" customHeight="1" spans="1:23">
-      <c r="A3" s="6" t="s">
+      <c r="A3" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="B3" s="7" t="s">
+      <c r="B3" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="7" t="s">
+      <c r="C3" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="D3" s="7" t="s">
+      <c r="D3" s="6" t="s">
         <v>8</v>
       </c>
-      <c r="E3" s="7" t="s">
+      <c r="E3" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="F3" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="G3" s="7" t="s">
+      <c r="G3" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="H3" s="6" t="s">
+      <c r="H3" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="K3" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="6" t="s">
+      <c r="L3" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="M3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="N3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="O3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="P3" s="9" t="s">
+      <c r="P3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="Q3" s="9" t="s">
+      <c r="Q3" s="8" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="9" t="s">
+      <c r="R3" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="S3" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="T3" s="9" t="s">
+      <c r="T3" s="8" t="s">
         <v>20</v>
       </c>
-      <c r="U3" s="12" t="s">
+      <c r="U3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="V3" s="12" t="s">
+      <c r="V3" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="W3" s="12" t="s">
+      <c r="W3" s="11" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="15.6" spans="1:256">
-      <c r="A4" s="8" t="s">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:256">
+      <c r="A4" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="8" t="s">
+      <c r="B4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="D4" s="8" t="s">
+      <c r="D4" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E4" s="8" t="s">
+      <c r="E4" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="F4" s="8" t="s">
+      <c r="F4" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="G4" s="8" t="s">
+      <c r="G4" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="H4" s="8" t="s">
+      <c r="H4" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="I4" s="8" t="s">
+      <c r="I4" s="7" t="s">
         <v>32</v>
       </c>
-      <c r="J4" s="8" t="s">
+      <c r="J4" s="7" t="s">
         <v>33</v>
       </c>
-      <c r="K4" s="8" t="s">
+      <c r="K4" s="7" t="s">
         <v>34</v>
       </c>
-      <c r="L4" s="8" t="s">
+      <c r="L4" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M4" s="8" t="s">
+      <c r="M4" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="N4" s="8" t="s">
+      <c r="N4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="O4" s="8" t="s">
+      <c r="O4" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P4" s="8" t="s">
+      <c r="P4" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="Q4" s="8" t="s">
+      <c r="Q4" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="R4" s="8" t="s">
+      <c r="R4" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="S4" s="8" t="s">
+      <c r="S4" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="T4" s="8" t="s">
+      <c r="T4" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="U4" s="8" t="s">
+      <c r="U4" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="V4" s="8" t="s">
+      <c r="V4" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="W4" s="8" t="s">
+      <c r="W4" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="X4" s="8"/>
-      <c r="Y4" s="8"/>
-      <c r="Z4" s="8"/>
-      <c r="AA4" s="8"/>
-      <c r="AB4" s="8"/>
-      <c r="AC4" s="8"/>
-      <c r="AD4" s="8"/>
-      <c r="AE4" s="8"/>
-      <c r="AF4" s="8"/>
-      <c r="AG4" s="8"/>
-      <c r="AH4" s="8"/>
-      <c r="AI4" s="8"/>
-      <c r="AJ4" s="8"/>
-      <c r="AK4" s="8"/>
-      <c r="AL4" s="8"/>
-      <c r="AM4" s="8"/>
-      <c r="AN4" s="8"/>
-      <c r="AO4" s="8"/>
-      <c r="AP4" s="8"/>
-      <c r="AQ4" s="8"/>
-      <c r="AR4" s="8"/>
-      <c r="AS4" s="8"/>
-      <c r="AT4" s="8"/>
-      <c r="AU4" s="8"/>
-      <c r="AV4" s="8"/>
-      <c r="AW4" s="8"/>
-      <c r="AX4" s="8"/>
-      <c r="AY4" s="8"/>
-      <c r="AZ4" s="8"/>
-      <c r="BA4" s="8"/>
-      <c r="BB4" s="8"/>
-      <c r="BC4" s="8"/>
-      <c r="BD4" s="8"/>
-      <c r="BE4" s="8"/>
-      <c r="BF4" s="8"/>
-      <c r="BG4" s="8"/>
-      <c r="BH4" s="8"/>
-      <c r="BI4" s="8"/>
-      <c r="BJ4" s="8"/>
-      <c r="BK4" s="8"/>
-      <c r="BL4" s="8"/>
-      <c r="BM4" s="8"/>
-      <c r="BN4" s="8"/>
-      <c r="BO4" s="8"/>
-      <c r="BP4" s="8"/>
-      <c r="BQ4" s="8"/>
-      <c r="BR4" s="8"/>
-      <c r="BS4" s="8"/>
-      <c r="BT4" s="8"/>
-      <c r="BU4" s="8"/>
-      <c r="BV4" s="8"/>
-      <c r="BW4" s="8"/>
-      <c r="BX4" s="8"/>
-      <c r="BY4" s="8"/>
-      <c r="BZ4" s="8"/>
-      <c r="CA4" s="8"/>
-      <c r="CB4" s="8"/>
-      <c r="CC4" s="8"/>
-      <c r="CD4" s="8"/>
-      <c r="CE4" s="8"/>
-      <c r="CF4" s="8"/>
-      <c r="CG4" s="8"/>
-      <c r="CH4" s="8"/>
-      <c r="CI4" s="8"/>
-      <c r="CJ4" s="8"/>
-      <c r="CK4" s="8"/>
-      <c r="CL4" s="8"/>
-      <c r="CM4" s="8"/>
-      <c r="CN4" s="8"/>
-      <c r="CO4" s="8"/>
-      <c r="CP4" s="8"/>
-      <c r="CQ4" s="8"/>
-      <c r="CR4" s="8"/>
-      <c r="CS4" s="8"/>
-      <c r="CT4" s="8"/>
-      <c r="CU4" s="8"/>
-      <c r="CV4" s="8"/>
-      <c r="CW4" s="8"/>
-      <c r="CX4" s="8"/>
-      <c r="CY4" s="8"/>
-      <c r="CZ4" s="8"/>
-      <c r="DA4" s="8"/>
-      <c r="DB4" s="8"/>
-      <c r="DC4" s="8"/>
-      <c r="DD4" s="8"/>
-      <c r="DE4" s="8"/>
-      <c r="DF4" s="8"/>
-      <c r="DG4" s="8"/>
-      <c r="DH4" s="8"/>
-      <c r="DI4" s="8"/>
-      <c r="DJ4" s="8"/>
-      <c r="DK4" s="8"/>
-      <c r="DL4" s="8"/>
-      <c r="DM4" s="8"/>
-      <c r="DN4" s="8"/>
-      <c r="DO4" s="8"/>
-      <c r="DP4" s="8"/>
-      <c r="DQ4" s="8"/>
-      <c r="DR4" s="8"/>
-      <c r="DS4" s="8"/>
-      <c r="DT4" s="8"/>
-      <c r="DU4" s="8"/>
-      <c r="DV4" s="8"/>
-      <c r="DW4" s="8"/>
-      <c r="DX4" s="8"/>
-      <c r="DY4" s="8"/>
-      <c r="DZ4" s="8"/>
-      <c r="EA4" s="8"/>
-      <c r="EB4" s="8"/>
-      <c r="EC4" s="8"/>
-      <c r="ED4" s="8"/>
-      <c r="EE4" s="8"/>
-      <c r="EF4" s="8"/>
-      <c r="EG4" s="8"/>
-      <c r="EH4" s="8"/>
-      <c r="EI4" s="8"/>
-      <c r="EJ4" s="8"/>
-      <c r="EK4" s="8"/>
-      <c r="EL4" s="8"/>
-      <c r="EM4" s="8"/>
-      <c r="EN4" s="8"/>
-      <c r="EO4" s="8"/>
-      <c r="EP4" s="8"/>
-      <c r="EQ4" s="8"/>
-      <c r="ER4" s="8"/>
-      <c r="ES4" s="8"/>
-      <c r="ET4" s="8"/>
-      <c r="EU4" s="8"/>
-      <c r="EV4" s="8"/>
-      <c r="EW4" s="8"/>
-      <c r="EX4" s="8"/>
-      <c r="EY4" s="8"/>
-      <c r="EZ4" s="8"/>
-      <c r="FA4" s="8"/>
-      <c r="FB4" s="8"/>
-      <c r="FC4" s="8"/>
-      <c r="FD4" s="8"/>
-      <c r="FE4" s="8"/>
-      <c r="FF4" s="8"/>
-      <c r="FG4" s="8"/>
-      <c r="FH4" s="8"/>
-      <c r="FI4" s="8"/>
-      <c r="FJ4" s="8"/>
-      <c r="FK4" s="8"/>
-      <c r="FL4" s="8"/>
-      <c r="FM4" s="8"/>
-      <c r="FN4" s="8"/>
-      <c r="FO4" s="8"/>
-      <c r="FP4" s="8"/>
-      <c r="FQ4" s="8"/>
-      <c r="FR4" s="8"/>
-      <c r="FS4" s="8"/>
-      <c r="FT4" s="8"/>
-      <c r="FU4" s="8"/>
-      <c r="FV4" s="8"/>
-      <c r="FW4" s="8"/>
-      <c r="FX4" s="8"/>
-      <c r="FY4" s="8"/>
-      <c r="FZ4" s="8"/>
-      <c r="GA4" s="8"/>
-      <c r="GB4" s="8"/>
-      <c r="GC4" s="8"/>
-      <c r="GD4" s="8"/>
-      <c r="GE4" s="8"/>
-      <c r="GF4" s="8"/>
-      <c r="GG4" s="8"/>
-      <c r="GH4" s="8"/>
-      <c r="GI4" s="8"/>
-      <c r="GJ4" s="8"/>
-      <c r="GK4" s="8"/>
-      <c r="GL4" s="8"/>
-      <c r="GM4" s="8"/>
-      <c r="GN4" s="8"/>
-      <c r="GO4" s="8"/>
-      <c r="GP4" s="8"/>
-      <c r="GQ4" s="8"/>
-      <c r="GR4" s="8"/>
-      <c r="GS4" s="8"/>
-      <c r="GT4" s="8"/>
-      <c r="GU4" s="8"/>
-      <c r="GV4" s="8"/>
-      <c r="GW4" s="8"/>
-      <c r="GX4" s="8"/>
-      <c r="GY4" s="8"/>
-      <c r="GZ4" s="8"/>
-      <c r="HA4" s="8"/>
-      <c r="HB4" s="8"/>
-      <c r="HC4" s="8"/>
-      <c r="HD4" s="8"/>
-      <c r="HE4" s="8"/>
-      <c r="HF4" s="8"/>
-      <c r="HG4" s="8"/>
-      <c r="HH4" s="8"/>
-      <c r="HI4" s="8"/>
-      <c r="HJ4" s="8"/>
-      <c r="HK4" s="8"/>
-      <c r="HL4" s="8"/>
-      <c r="HM4" s="8"/>
-      <c r="HN4" s="8"/>
-      <c r="HO4" s="8"/>
-      <c r="HP4" s="8"/>
-      <c r="HQ4" s="8"/>
-      <c r="HR4" s="8"/>
-      <c r="HS4" s="8"/>
-      <c r="HT4" s="8"/>
-      <c r="HU4" s="8"/>
-      <c r="HV4" s="8"/>
-      <c r="HW4" s="8"/>
-      <c r="HX4" s="8"/>
-      <c r="HY4" s="8"/>
-      <c r="HZ4" s="8"/>
-      <c r="IA4" s="8"/>
-      <c r="IB4" s="8"/>
-      <c r="IC4" s="8"/>
-      <c r="ID4" s="8"/>
-      <c r="IE4" s="8"/>
-      <c r="IF4" s="8"/>
-      <c r="IG4" s="8"/>
-      <c r="IH4" s="8"/>
-      <c r="II4" s="8"/>
-      <c r="IJ4" s="8"/>
-      <c r="IK4" s="8"/>
-      <c r="IL4" s="8"/>
-      <c r="IM4" s="8"/>
-      <c r="IN4" s="8"/>
-      <c r="IO4" s="8"/>
-      <c r="IP4" s="8"/>
-      <c r="IQ4" s="8"/>
-      <c r="IR4" s="8"/>
-      <c r="IS4" s="8"/>
-      <c r="IT4" s="8"/>
-      <c r="IU4" s="8"/>
-      <c r="IV4" s="8"/>
+      <c r="X4" s="7"/>
+      <c r="Y4" s="7"/>
+      <c r="Z4" s="7"/>
+      <c r="AA4" s="7"/>
+      <c r="AB4" s="7"/>
+      <c r="AC4" s="7"/>
+      <c r="AD4" s="7"/>
+      <c r="AE4" s="7"/>
+      <c r="AF4" s="7"/>
+      <c r="AG4" s="7"/>
+      <c r="AH4" s="7"/>
+      <c r="AI4" s="7"/>
+      <c r="AJ4" s="7"/>
+      <c r="AK4" s="7"/>
+      <c r="AL4" s="7"/>
+      <c r="AM4" s="7"/>
+      <c r="AN4" s="7"/>
+      <c r="AO4" s="7"/>
+      <c r="AP4" s="7"/>
+      <c r="AQ4" s="7"/>
+      <c r="AR4" s="7"/>
+      <c r="AS4" s="7"/>
+      <c r="AT4" s="7"/>
+      <c r="AU4" s="7"/>
+      <c r="AV4" s="7"/>
+      <c r="AW4" s="7"/>
+      <c r="AX4" s="7"/>
+      <c r="AY4" s="7"/>
+      <c r="AZ4" s="7"/>
+      <c r="BA4" s="7"/>
+      <c r="BB4" s="7"/>
+      <c r="BC4" s="7"/>
+      <c r="BD4" s="7"/>
+      <c r="BE4" s="7"/>
+      <c r="BF4" s="7"/>
+      <c r="BG4" s="7"/>
+      <c r="BH4" s="7"/>
+      <c r="BI4" s="7"/>
+      <c r="BJ4" s="7"/>
+      <c r="BK4" s="7"/>
+      <c r="BL4" s="7"/>
+      <c r="BM4" s="7"/>
+      <c r="BN4" s="7"/>
+      <c r="BO4" s="7"/>
+      <c r="BP4" s="7"/>
+      <c r="BQ4" s="7"/>
+      <c r="BR4" s="7"/>
+      <c r="BS4" s="7"/>
+      <c r="BT4" s="7"/>
+      <c r="BU4" s="7"/>
+      <c r="BV4" s="7"/>
+      <c r="BW4" s="7"/>
+      <c r="BX4" s="7"/>
+      <c r="BY4" s="7"/>
+      <c r="BZ4" s="7"/>
+      <c r="CA4" s="7"/>
+      <c r="CB4" s="7"/>
+      <c r="CC4" s="7"/>
+      <c r="CD4" s="7"/>
+      <c r="CE4" s="7"/>
+      <c r="CF4" s="7"/>
+      <c r="CG4" s="7"/>
+      <c r="CH4" s="7"/>
+      <c r="CI4" s="7"/>
+      <c r="CJ4" s="7"/>
+      <c r="CK4" s="7"/>
+      <c r="CL4" s="7"/>
+      <c r="CM4" s="7"/>
+      <c r="CN4" s="7"/>
+      <c r="CO4" s="7"/>
+      <c r="CP4" s="7"/>
+      <c r="CQ4" s="7"/>
+      <c r="CR4" s="7"/>
+      <c r="CS4" s="7"/>
+      <c r="CT4" s="7"/>
+      <c r="CU4" s="7"/>
+      <c r="CV4" s="7"/>
+      <c r="CW4" s="7"/>
+      <c r="CX4" s="7"/>
+      <c r="CY4" s="7"/>
+      <c r="CZ4" s="7"/>
+      <c r="DA4" s="7"/>
+      <c r="DB4" s="7"/>
+      <c r="DC4" s="7"/>
+      <c r="DD4" s="7"/>
+      <c r="DE4" s="7"/>
+      <c r="DF4" s="7"/>
+      <c r="DG4" s="7"/>
+      <c r="DH4" s="7"/>
+      <c r="DI4" s="7"/>
+      <c r="DJ4" s="7"/>
+      <c r="DK4" s="7"/>
+      <c r="DL4" s="7"/>
+      <c r="DM4" s="7"/>
+      <c r="DN4" s="7"/>
+      <c r="DO4" s="7"/>
+      <c r="DP4" s="7"/>
+      <c r="DQ4" s="7"/>
+      <c r="DR4" s="7"/>
+      <c r="DS4" s="7"/>
+      <c r="DT4" s="7"/>
+      <c r="DU4" s="7"/>
+      <c r="DV4" s="7"/>
+      <c r="DW4" s="7"/>
+      <c r="DX4" s="7"/>
+      <c r="DY4" s="7"/>
+      <c r="DZ4" s="7"/>
+      <c r="EA4" s="7"/>
+      <c r="EB4" s="7"/>
+      <c r="EC4" s="7"/>
+      <c r="ED4" s="7"/>
+      <c r="EE4" s="7"/>
+      <c r="EF4" s="7"/>
+      <c r="EG4" s="7"/>
+      <c r="EH4" s="7"/>
+      <c r="EI4" s="7"/>
+      <c r="EJ4" s="7"/>
+      <c r="EK4" s="7"/>
+      <c r="EL4" s="7"/>
+      <c r="EM4" s="7"/>
+      <c r="EN4" s="7"/>
+      <c r="EO4" s="7"/>
+      <c r="EP4" s="7"/>
+      <c r="EQ4" s="7"/>
+      <c r="ER4" s="7"/>
+      <c r="ES4" s="7"/>
+      <c r="ET4" s="7"/>
+      <c r="EU4" s="7"/>
+      <c r="EV4" s="7"/>
+      <c r="EW4" s="7"/>
+      <c r="EX4" s="7"/>
+      <c r="EY4" s="7"/>
+      <c r="EZ4" s="7"/>
+      <c r="FA4" s="7"/>
+      <c r="FB4" s="7"/>
+      <c r="FC4" s="7"/>
+      <c r="FD4" s="7"/>
+      <c r="FE4" s="7"/>
+      <c r="FF4" s="7"/>
+      <c r="FG4" s="7"/>
+      <c r="FH4" s="7"/>
+      <c r="FI4" s="7"/>
+      <c r="FJ4" s="7"/>
+      <c r="FK4" s="7"/>
+      <c r="FL4" s="7"/>
+      <c r="FM4" s="7"/>
+      <c r="FN4" s="7"/>
+      <c r="FO4" s="7"/>
+      <c r="FP4" s="7"/>
+      <c r="FQ4" s="7"/>
+      <c r="FR4" s="7"/>
+      <c r="FS4" s="7"/>
+      <c r="FT4" s="7"/>
+      <c r="FU4" s="7"/>
+      <c r="FV4" s="7"/>
+      <c r="FW4" s="7"/>
+      <c r="FX4" s="7"/>
+      <c r="FY4" s="7"/>
+      <c r="FZ4" s="7"/>
+      <c r="GA4" s="7"/>
+      <c r="GB4" s="7"/>
+      <c r="GC4" s="7"/>
+      <c r="GD4" s="7"/>
+      <c r="GE4" s="7"/>
+      <c r="GF4" s="7"/>
+      <c r="GG4" s="7"/>
+      <c r="GH4" s="7"/>
+      <c r="GI4" s="7"/>
+      <c r="GJ4" s="7"/>
+      <c r="GK4" s="7"/>
+      <c r="GL4" s="7"/>
+      <c r="GM4" s="7"/>
+      <c r="GN4" s="7"/>
+      <c r="GO4" s="7"/>
+      <c r="GP4" s="7"/>
+      <c r="GQ4" s="7"/>
+      <c r="GR4" s="7"/>
+      <c r="GS4" s="7"/>
+      <c r="GT4" s="7"/>
+      <c r="GU4" s="7"/>
+      <c r="GV4" s="7"/>
+      <c r="GW4" s="7"/>
+      <c r="GX4" s="7"/>
+      <c r="GY4" s="7"/>
+      <c r="GZ4" s="7"/>
+      <c r="HA4" s="7"/>
+      <c r="HB4" s="7"/>
+      <c r="HC4" s="7"/>
+      <c r="HD4" s="7"/>
+      <c r="HE4" s="7"/>
+      <c r="HF4" s="7"/>
+      <c r="HG4" s="7"/>
+      <c r="HH4" s="7"/>
+      <c r="HI4" s="7"/>
+      <c r="HJ4" s="7"/>
+      <c r="HK4" s="7"/>
+      <c r="HL4" s="7"/>
+      <c r="HM4" s="7"/>
+      <c r="HN4" s="7"/>
+      <c r="HO4" s="7"/>
+      <c r="HP4" s="7"/>
+      <c r="HQ4" s="7"/>
+      <c r="HR4" s="7"/>
+      <c r="HS4" s="7"/>
+      <c r="HT4" s="7"/>
+      <c r="HU4" s="7"/>
+      <c r="HV4" s="7"/>
+      <c r="HW4" s="7"/>
+      <c r="HX4" s="7"/>
+      <c r="HY4" s="7"/>
+      <c r="HZ4" s="7"/>
+      <c r="IA4" s="7"/>
+      <c r="IB4" s="7"/>
+      <c r="IC4" s="7"/>
+      <c r="ID4" s="7"/>
+      <c r="IE4" s="7"/>
+      <c r="IF4" s="7"/>
+      <c r="IG4" s="7"/>
+      <c r="IH4" s="7"/>
+      <c r="II4" s="7"/>
+      <c r="IJ4" s="7"/>
+      <c r="IK4" s="7"/>
+      <c r="IL4" s="7"/>
+      <c r="IM4" s="7"/>
+      <c r="IN4" s="7"/>
+      <c r="IO4" s="7"/>
+      <c r="IP4" s="7"/>
+      <c r="IQ4" s="7"/>
+      <c r="IR4" s="7"/>
+      <c r="IS4" s="7"/>
+      <c r="IT4" s="7"/>
+      <c r="IU4" s="7"/>
+      <c r="IV4" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="5">
-    <mergeCell ref="A1:U1"/>
+    <mergeCell ref="A1:W1"/>
     <mergeCell ref="A2:L2"/>
     <mergeCell ref="M2:P2"/>
     <mergeCell ref="Q2:T2"/>
